--- a/Formato registro Grupos para presentaciones B2C .xlsx
+++ b/Formato registro Grupos para presentaciones B2C .xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miukC2F4Pkrm1ErfsoKsf/kshpFVw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgYkry1slormlwNeVVU7PVTG7MVDg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t xml:space="preserve">GRUPOS PRESENTACIONES </t>
   </si>
@@ -49,38 +49,19 @@
     <t>LINK DEL PROYECTO</t>
   </si>
   <si>
-    <t>EJEMPLO Doctor Ivan Montoya</t>
-  </si>
-  <si>
-    <t>Doctor Ivan Montoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoy en día como medico se requiere mas que una simple atención brindar a los pacientes acceso a información individualizada y seguimiento a sus necesidades. El objetivo es desarrollar una aplicación web que permita  a los pacientes obtener informacion del médico, planes que ofrece, tienda de productos y acceder al contenido propio para pacientes.
-</t>
-  </si>
-  <si>
-    <t>Ivan Felipe Montoya - Scrum Máster</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1LcS4t1o1hs4R2Hiw5hQIQXHJJdk_T-lB/edit?usp=sharing&amp;ouid=115363636408486448304&amp;rtpof=true&amp;sd=true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Perico - Product Owner </t>
-  </si>
-  <si>
-    <t>Nicolas Bermeo - Desarrollador</t>
-  </si>
-  <si>
     <t>AVN Motors - Equipo 2</t>
   </si>
   <si>
     <t>AVN Motors</t>
   </si>
   <si>
-    <t>Actualente exite la necesidad para los usurios de contar con un sitio en el que pueda encontrar diferentes servicios para sus vehiculos con diferentes provedores, al igual que la necesidad de los talleres y proveedores de dar mayor visibilidad a sus negocios. AVN Motors es una aplicación web que unifica servicios de taller de vehiculos, y venta de accesorios y repuestos , permitiendole al usuario agendamiento de citas e historico de servicios y productos, tanto para el proveedor como para el cliente.</t>
+    <t>Actualmente existe la necesidad para los usuarios de contar con un sitio en el que pueda encontrar diferentes servicios para sus vehículos con diferentes proveedores, al igual que la necesidad de los talleres y proveedores de dar mayor visibilidad a sus negocios. AVN Motors es una aplicación web que unifica servicios de taller de vehículos, y venta de accesorios y repuestos , permitiéndole al usuario agendamiento de citas e histórico de servicios y productos, tanto para el proveedor como para el cliente.</t>
   </si>
   <si>
     <t xml:space="preserve">Alejandro Muñoz - Product Owner </t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1tE6BfaTTwv6Bus-1NMVA_Mp4ZuGFVqZd/edit?usp=sharing&amp;ouid=109503257169032636303&amp;rtpof=true&amp;sd=true</t>
   </si>
   <si>
     <t>https://al3jox.github.io/TallerVehiculos/</t>
@@ -106,10 +87,37 @@
     <t xml:space="preserve"> Carolina Taborda Rua - Product Owner </t>
   </si>
   <si>
+    <t>https://docs.google.com/presentation/d/1--iTfNJeEUnx5fKOqgRAhllwEv4z880OKavP0FYeMww/edit#slide=id.p</t>
+  </si>
+  <si>
+    <t>https://caro-rua.github.io/Proyecto-bit/</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Oscar vasquez  - Scrum Máster</t>
   </si>
   <si>
     <t xml:space="preserve"> Carolina Montoya  Johann Cruz  - Developer</t>
+  </si>
+  <si>
+    <t>JJP-Videojuegos- Equipo 5</t>
+  </si>
+  <si>
+    <t>World Of Games</t>
+  </si>
+  <si>
+    <t>En la actualidad muchos usuarios amantes de los videojuegos y consolas dieron a conocer la necesidad de una sola página que les brinde tarjetas de videojuegos, accesorios de consolas y consolas que vengan de diferentes proveedores, nuestra pagina web ofrece a cada uno de nuestros clientes lo mejor de los videojuegos y accesorios para sus consolas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Diego Delgado </t>
+  </si>
+  <si>
+    <t>https://www.canva.com/design/DAE8luuVntw/Q3cax0inYzRNS8dM0x9Rvw/edit?utm_content=DAE8luuVntw&amp;utm_campaign=designshare&amp;utm_medium=link2&amp;utm_source=sharebutton</t>
+  </si>
+  <si>
+    <t>Jaider Rueda</t>
+  </si>
+  <si>
+    <t>Jennsi Suárez Páez</t>
   </si>
   <si>
     <t>ALVARO SANTACRUZ</t>
@@ -117,12 +125,34 @@
   <si>
     <t xml:space="preserve">Cierre modulo 1 </t>
   </si>
+  <si>
+    <t>EJEMPLO Doctor Ivan Montoya</t>
+  </si>
+  <si>
+    <t>Doctor Ivan Montoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy en día como medico se requiere mas que una simple atención brindar a los pacientes acceso a información individualizada y seguimiento a sus necesidades. El objetivo es desarrollar una aplicación web que permita  a los pacientes obtener informacion del médico, planes que ofrece, tienda de productos y acceder al contenido propio para pacientes.
+</t>
+  </si>
+  <si>
+    <t>Ivan Felipe Montoya - Scrum Máster</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1LcS4t1o1hs4R2Hiw5hQIQXHJJdk_T-lB/edit?usp=sharing&amp;ouid=115363636408486448304&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Perico - Product Owner </t>
+  </si>
+  <si>
+    <t>Nicolas Bermeo - Desarrollador</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -158,11 +188,23 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
     <font/>
     <font>
       <u/>
       <sz val="10.0"/>
-      <color rgb="FF1155CC"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -256,6 +298,9 @@
       </top>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -272,9 +317,12 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -287,17 +335,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -319,38 +361,6 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -359,24 +369,52 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -384,7 +422,8 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -401,7 +440,7 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -413,9 +452,20 @@
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,7 +693,7 @@
     <col customWidth="1" min="1" max="1" width="4.63"/>
     <col customWidth="1" min="2" max="2" width="23.88"/>
     <col customWidth="1" min="3" max="3" width="15.25"/>
-    <col customWidth="1" min="4" max="4" width="43.5"/>
+    <col customWidth="1" min="4" max="4" width="58.0"/>
     <col customWidth="1" min="5" max="5" width="38.63"/>
     <col customWidth="1" min="6" max="6" width="22.38"/>
     <col customWidth="1" min="7" max="7" width="31.13"/>
@@ -688,14 +738,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="36.75" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -707,351 +757,355 @@
       <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" ht="84.75" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="20" t="s">
+      <c r="E5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" ht="11.25" customHeight="1">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" ht="65.25" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" ht="11.25" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="28" t="s">
+      <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="29" t="s">
+      <c r="F10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="29" t="s">
+      <c r="G10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="16"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" ht="65.25" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" ht="11.25" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="E11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="33" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" ht="11.25" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="28">
+        <v>5.0</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="C16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="29" t="s">
+      <c r="D16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="16"/>
+      <c r="E17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" ht="11.25" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="28">
         <v>4.0</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="16"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="34"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="16"/>
+      <c r="A27" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="16"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="16"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" ht="12.0" customHeight="1">
+      <c r="A32" s="34"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="16"/>
+      <c r="A33" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="16"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="30"/>
-    </row>
-    <row r="36" ht="12.0" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="39"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="42"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="42"/>
+    <row r="39" ht="60.75" customHeight="1">
+      <c r="A39" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -1059,65 +1113,47 @@
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="42"/>
+      <c r="E40" s="39"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="42"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="44"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="42"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="60.75" customHeight="1">
-      <c r="A43" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="42"/>
+      <c r="A44" s="5"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="42"/>
+      <c r="A45" s="5"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="42"/>
+      <c r="A46" s="5"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="42"/>
+      <c r="A47" s="5"/>
       <c r="F47" s="4"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -1888,22 +1924,10 @@
       <c r="A239" s="5"/>
       <c r="F239" s="4"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="5"/>
-      <c r="F240" s="4"/>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="5"/>
-      <c r="F241" s="4"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="5"/>
-      <c r="F242" s="4"/>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="5"/>
-      <c r="F243" s="4"/>
-    </row>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
     <row r="244" ht="15.75" customHeight="1"/>
     <row r="245" ht="15.75" customHeight="1"/>
     <row r="246" ht="15.75" customHeight="1"/>
@@ -2657,53 +2681,48 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
+  <mergeCells count="28">
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F4"/>
-    <hyperlink r:id="rId2" ref="G8"/>
+    <hyperlink r:id="rId2" ref="G4"/>
+    <hyperlink r:id="rId3" location="slide=id.p" ref="F10"/>
+    <hyperlink r:id="rId4" ref="G10"/>
+    <hyperlink r:id="rId5" ref="F16"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2732,13 +2751,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -2759,340 +2778,340 @@
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="36.75" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="23">
         <v>1.0</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="16"/>
+      <c r="B4" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" ht="84.75" customHeight="1">
       <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
+      <c r="E6" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" ht="11.25" customHeight="1">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24">
+      <c r="A8" s="8">
         <v>2.0</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" ht="11.25" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8">
+      <c r="A14" s="23">
         <v>3.0</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" ht="11.25" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8">
+      <c r="A20" s="23">
         <v>4.0</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="11"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8">
+      <c r="A25" s="23">
         <v>5.0</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="16"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="16"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="8">
+      <c r="A31" s="23">
         <v>6.0</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="16"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="8">
+      <c r="A37" s="23">
         <v>7.0</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="42"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -3100,7 +3119,7 @@
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="42"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -3108,7 +3127,7 @@
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="42"/>
+      <c r="E40" s="39"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3116,25 +3135,25 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="42"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="44"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="42"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" ht="60.75" customHeight="1">
-      <c r="A43" s="8">
+      <c r="A43" s="23">
         <v>8.0</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -3142,7 +3161,7 @@
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="42"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -3150,7 +3169,7 @@
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="42"/>
+      <c r="E45" s="39"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -3158,7 +3177,7 @@
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="42"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -3166,7 +3185,7 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="42"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="4"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
